--- a/src/output/results9.xlsx
+++ b/src/output/results9.xlsx
@@ -346,2922 +346,2922 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5111.0</v>
+        <v>2937.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1226.0</v>
+        <v>1141.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5177.0</v>
+        <v>3635.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1189.0</v>
+        <v>1150.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4441.0</v>
+        <v>3353.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1400.0</v>
+        <v>1144.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4089.0</v>
+        <v>2941.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1907.0</v>
+        <v>1268.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3838.0</v>
+        <v>2868.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2035.0</v>
+        <v>1331.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3571.0</v>
+        <v>3466.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1778.0</v>
+        <v>1237.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3290.0</v>
+        <v>3158.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1762.0</v>
+        <v>1159.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3107.0</v>
+        <v>2477.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1647.0</v>
+        <v>1213.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3028.0</v>
+        <v>2407.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1492.0</v>
+        <v>1212.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2940.0</v>
+        <v>2444.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1484.0</v>
+        <v>1212.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2735.0</v>
+        <v>2351.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1403.0</v>
+        <v>1047.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2827.0</v>
+        <v>2401.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1279.0</v>
+        <v>989.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2674.0</v>
+        <v>2763.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1228.0</v>
+        <v>1051.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2682.0</v>
+        <v>2768.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1290.0</v>
+        <v>977.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2635.0</v>
+        <v>2379.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1245.0</v>
+        <v>1004.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2697.0</v>
+        <v>2343.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1232.0</v>
+        <v>1002.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2641.0</v>
+        <v>2316.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1130.0</v>
+        <v>993.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2736.0</v>
+        <v>2273.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1127.0</v>
+        <v>999.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2637.0</v>
+        <v>2280.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1135.0</v>
+        <v>967.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2682.0</v>
+        <v>2765.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1113.0</v>
+        <v>914.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2615.0</v>
+        <v>2617.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1145.0</v>
+        <v>912.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2575.0</v>
+        <v>2301.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1162.0</v>
+        <v>940.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2590.0</v>
+        <v>2355.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1062.0</v>
+        <v>1014.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2545.0</v>
+        <v>2324.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1110.0</v>
+        <v>976.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2538.0</v>
+        <v>2276.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1122.0</v>
+        <v>983.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2496.0</v>
+        <v>2313.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1080.0</v>
+        <v>983.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2550.0</v>
+        <v>2886.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1067.0</v>
+        <v>962.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2559.0</v>
+        <v>2658.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1066.0</v>
+        <v>965.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2514.0</v>
+        <v>2340.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1059.0</v>
+        <v>980.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2522.0</v>
+        <v>2293.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1031.0</v>
+        <v>1003.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2502.0</v>
+        <v>2303.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1057.0</v>
+        <v>1015.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3254.0</v>
+        <v>3328.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1043.0</v>
+        <v>945.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3115.0</v>
+        <v>3227.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1079.0</v>
+        <v>1005.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3046.0</v>
+        <v>3322.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1180.0</v>
+        <v>1073.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3142.0</v>
+        <v>3283.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1261.0</v>
+        <v>1262.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4182.0</v>
+        <v>4408.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1261.0</v>
+        <v>1305.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4181.0</v>
+        <v>4309.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1296.0</v>
+        <v>1391.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4606.0</v>
+        <v>4970.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1531.0</v>
+        <v>1510.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5160.0</v>
+        <v>5619.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1755.0</v>
+        <v>1746.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5787.0</v>
+        <v>6023.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1836.0</v>
+        <v>1980.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5199.0</v>
+        <v>6436.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2055.0</v>
+        <v>2231.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4991.0</v>
+        <v>6520.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2343.0</v>
+        <v>2442.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6899.0</v>
+        <v>7488.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2415.0</v>
+        <v>2533.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6620.0</v>
+        <v>7148.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2426.0</v>
+        <v>2714.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7061.0</v>
+        <v>7792.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2580.0</v>
+        <v>2915.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7889.0</v>
+        <v>8348.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2917.0</v>
+        <v>3127.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8424.0</v>
+        <v>9263.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2958.0</v>
+        <v>3301.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7551.0</v>
+        <v>9640.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3180.0</v>
+        <v>3529.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7120.0</v>
+        <v>9926.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3463.0</v>
+        <v>3787.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9946.0</v>
+        <v>10734.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3572.0</v>
+        <v>3979.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9050.0</v>
+        <v>9904.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3578.0</v>
+        <v>4169.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9572.0</v>
+        <v>10760.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3697.0</v>
+        <v>4328.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10647.0</v>
+        <v>11591.0</v>
       </c>
       <c r="B53" t="n">
-        <v>4078.0</v>
+        <v>4603.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11045.0</v>
+        <v>12189.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4094.0</v>
+        <v>4628.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9871.0</v>
+        <v>13163.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4386.0</v>
+        <v>4851.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9081.0</v>
+        <v>13534.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4692.0</v>
+        <v>5203.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12900.0</v>
+        <v>13993.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4785.0</v>
+        <v>5396.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11540.0</v>
+        <v>13092.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4744.0</v>
+        <v>5622.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12036.0</v>
+        <v>14011.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4782.0</v>
+        <v>5831.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13346.0</v>
+        <v>15023.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5273.0</v>
+        <v>6127.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13830.0</v>
+        <v>15545.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5416.0</v>
+        <v>6118.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12293.0</v>
+        <v>16556.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5403.0</v>
+        <v>6354.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>11235.0</v>
+        <v>17536.0</v>
       </c>
       <c r="B63" t="n">
-        <v>5999.0</v>
+        <v>6897.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>15833.0</v>
+        <v>17182.0</v>
       </c>
       <c r="B64" t="n">
-        <v>6005.0</v>
+        <v>6954.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>13701.0</v>
+        <v>15786.0</v>
       </c>
       <c r="B65" t="n">
-        <v>5885.0</v>
+        <v>7012.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>14560.0</v>
+        <v>16707.0</v>
       </c>
       <c r="B66" t="n">
-        <v>6015.0</v>
+        <v>7379.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>15748.0</v>
+        <v>17691.0</v>
       </c>
       <c r="B67" t="n">
-        <v>6430.0</v>
+        <v>7509.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>16287.0</v>
+        <v>18160.0</v>
       </c>
       <c r="B68" t="n">
-        <v>6476.0</v>
+        <v>7532.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>14234.0</v>
+        <v>19772.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6535.0</v>
+        <v>7660.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12846.0</v>
+        <v>20047.0</v>
       </c>
       <c r="B70" t="n">
-        <v>7076.0</v>
+        <v>8064.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>17745.0</v>
+        <v>19782.0</v>
       </c>
       <c r="B71" t="n">
-        <v>7273.0</v>
+        <v>8181.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>15294.0</v>
+        <v>17688.0</v>
       </c>
       <c r="B72" t="n">
-        <v>6642.0</v>
+        <v>8175.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>15991.0</v>
+        <v>19231.0</v>
       </c>
       <c r="B73" t="n">
-        <v>6897.0</v>
+        <v>8672.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>16897.0</v>
+        <v>19623.0</v>
       </c>
       <c r="B74" t="n">
-        <v>7267.0</v>
+        <v>8511.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>17223.0</v>
+        <v>20351.0</v>
       </c>
       <c r="B75" t="n">
-        <v>7034.0</v>
+        <v>8249.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>14811.0</v>
+        <v>21522.0</v>
       </c>
       <c r="B76" t="n">
-        <v>7146.0</v>
+        <v>8764.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>13354.0</v>
+        <v>21796.0</v>
       </c>
       <c r="B77" t="n">
-        <v>7723.0</v>
+        <v>8967.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>18251.0</v>
+        <v>20919.0</v>
       </c>
       <c r="B78" t="n">
-        <v>7692.0</v>
+        <v>8924.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>16204.0</v>
+        <v>18846.0</v>
       </c>
       <c r="B79" t="n">
-        <v>7221.0</v>
+        <v>9042.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16340.0</v>
+        <v>19481.0</v>
       </c>
       <c r="B80" t="n">
-        <v>7175.0</v>
+        <v>9312.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>17612.0</v>
+        <v>20172.0</v>
       </c>
       <c r="B81" t="n">
-        <v>7785.0</v>
+        <v>8946.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>17646.0</v>
+        <v>20495.0</v>
       </c>
       <c r="B82" t="n">
-        <v>7377.0</v>
+        <v>8876.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>15061.0</v>
+        <v>21611.0</v>
       </c>
       <c r="B83" t="n">
-        <v>7408.0</v>
+        <v>8895.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13789.0</v>
+        <v>21950.0</v>
       </c>
       <c r="B84" t="n">
-        <v>8040.0</v>
+        <v>9184.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>18265.0</v>
+        <v>20831.0</v>
       </c>
       <c r="B85" t="n">
-        <v>7844.0</v>
+        <v>8984.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>15982.0</v>
+        <v>18478.0</v>
       </c>
       <c r="B86" t="n">
-        <v>7496.0</v>
+        <v>8989.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>16156.0</v>
+        <v>19438.0</v>
       </c>
       <c r="B87" t="n">
-        <v>7300.0</v>
+        <v>9072.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>16805.0</v>
+        <v>20069.0</v>
       </c>
       <c r="B88" t="n">
-        <v>7400.0</v>
+        <v>8794.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>17022.0</v>
+        <v>20004.0</v>
       </c>
       <c r="B89" t="n">
-        <v>7224.0</v>
+        <v>8768.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>14417.0</v>
+        <v>21222.0</v>
       </c>
       <c r="B90" t="n">
-        <v>7188.0</v>
+        <v>8675.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>13267.0</v>
+        <v>21479.0</v>
       </c>
       <c r="B91" t="n">
-        <v>7625.0</v>
+        <v>8997.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>18175.0</v>
+        <v>20318.0</v>
       </c>
       <c r="B92" t="n">
-        <v>7533.0</v>
+        <v>8887.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>15437.0</v>
+        <v>18067.0</v>
       </c>
       <c r="B93" t="n">
-        <v>7026.0</v>
+        <v>8741.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>16001.0</v>
+        <v>18546.0</v>
       </c>
       <c r="B94" t="n">
-        <v>7154.0</v>
+        <v>8999.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>16612.0</v>
+        <v>19106.0</v>
       </c>
       <c r="B95" t="n">
-        <v>7409.0</v>
+        <v>8685.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>16824.0</v>
+        <v>18851.0</v>
       </c>
       <c r="B96" t="n">
-        <v>7018.0</v>
+        <v>8151.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>11987.0</v>
+        <v>20367.0</v>
       </c>
       <c r="B97" t="n">
-        <v>7021.0</v>
+        <v>8444.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>12776.0</v>
+        <v>19235.0</v>
       </c>
       <c r="B98" t="n">
-        <v>7630.0</v>
+        <v>8425.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13772.0</v>
+        <v>14260.0</v>
       </c>
       <c r="B99" t="n">
-        <v>7423.0</v>
+        <v>8439.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11868.0</v>
+        <v>12631.0</v>
       </c>
       <c r="B100" t="n">
-        <v>6536.0</v>
+        <v>8188.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11273.0</v>
+        <v>12229.0</v>
       </c>
       <c r="B101" t="n">
-        <v>6409.0</v>
+        <v>7713.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>10958.0</v>
+        <v>11948.0</v>
       </c>
       <c r="B102" t="n">
-        <v>5999.0</v>
+        <v>6540.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10608.0</v>
+        <v>11485.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5431.0</v>
+        <v>5826.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9233.0</v>
+        <v>14169.0</v>
       </c>
       <c r="B104" t="n">
-        <v>4919.0</v>
+        <v>5486.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8443.0</v>
+        <v>12530.0</v>
       </c>
       <c r="B105" t="n">
-        <v>5193.0</v>
+        <v>5278.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11459.0</v>
+        <v>12419.0</v>
       </c>
       <c r="B106" t="n">
-        <v>4892.0</v>
+        <v>5112.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10177.0</v>
+        <v>11544.0</v>
       </c>
       <c r="B107" t="n">
-        <v>4630.0</v>
+        <v>5221.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10473.0</v>
+        <v>11846.0</v>
       </c>
       <c r="B108" t="n">
-        <v>4595.0</v>
+        <v>5350.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11270.0</v>
+        <v>12577.0</v>
       </c>
       <c r="B109" t="n">
-        <v>4681.0</v>
+        <v>5194.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>12021.0</v>
+        <v>12880.0</v>
       </c>
       <c r="B110" t="n">
-        <v>4698.0</v>
+        <v>5246.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10039.0</v>
+        <v>13901.0</v>
       </c>
       <c r="B111" t="n">
-        <v>4904.0</v>
+        <v>5226.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9661.0</v>
+        <v>12930.0</v>
       </c>
       <c r="B112" t="n">
-        <v>5349.0</v>
+        <v>5548.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>13675.0</v>
+        <v>14093.0</v>
       </c>
       <c r="B113" t="n">
-        <v>5428.0</v>
+        <v>5703.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>12419.0</v>
+        <v>12664.0</v>
       </c>
       <c r="B114" t="n">
-        <v>5274.0</v>
+        <v>5701.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>12692.0</v>
+        <v>13175.0</v>
       </c>
       <c r="B115" t="n">
-        <v>5296.0</v>
+        <v>5685.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>13607.0</v>
+        <v>13440.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5478.0</v>
+        <v>5719.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>14451.0</v>
+        <v>14094.0</v>
       </c>
       <c r="B117" t="n">
-        <v>5465.0</v>
+        <v>5654.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>12367.0</v>
+        <v>14634.0</v>
       </c>
       <c r="B118" t="n">
-        <v>5748.0</v>
+        <v>5832.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11392.0</v>
+        <v>14409.0</v>
       </c>
       <c r="B119" t="n">
-        <v>6358.0</v>
+        <v>5999.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>16509.0</v>
+        <v>15235.0</v>
       </c>
       <c r="B120" t="n">
-        <v>6556.0</v>
+        <v>6007.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>14809.0</v>
+        <v>14052.0</v>
       </c>
       <c r="B121" t="n">
-        <v>6251.0</v>
+        <v>6237.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>15622.0</v>
+        <v>14180.0</v>
       </c>
       <c r="B122" t="n">
-        <v>6407.0</v>
+        <v>6234.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>16633.0</v>
+        <v>15223.0</v>
       </c>
       <c r="B123" t="n">
-        <v>6517.0</v>
+        <v>6237.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17549.0</v>
+        <v>15383.0</v>
       </c>
       <c r="B124" t="n">
-        <v>6678.0</v>
+        <v>6246.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>15548.0</v>
+        <v>16116.0</v>
       </c>
       <c r="B125" t="n">
-        <v>7209.0</v>
+        <v>6477.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>14048.0</v>
+        <v>15933.0</v>
       </c>
       <c r="B126" t="n">
-        <v>7714.0</v>
+        <v>6587.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>20087.0</v>
+        <v>16840.0</v>
       </c>
       <c r="B127" t="n">
-        <v>8018.0</v>
+        <v>6796.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>18274.0</v>
+        <v>15266.0</v>
       </c>
       <c r="B128" t="n">
-        <v>7927.0</v>
+        <v>6785.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>19474.0</v>
+        <v>15593.0</v>
       </c>
       <c r="B129" t="n">
-        <v>8010.0</v>
+        <v>7087.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>20230.0</v>
+        <v>16185.0</v>
       </c>
       <c r="B130" t="n">
-        <v>8074.0</v>
+        <v>6935.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>22054.0</v>
+        <v>16689.0</v>
       </c>
       <c r="B131" t="n">
-        <v>8527.0</v>
+        <v>6933.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>19250.0</v>
+        <v>17671.0</v>
       </c>
       <c r="B132" t="n">
-        <v>8941.0</v>
+        <v>6889.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>17535.0</v>
+        <v>17688.0</v>
       </c>
       <c r="B133" t="n">
-        <v>9961.0</v>
+        <v>7342.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>24388.0</v>
+        <v>18470.0</v>
       </c>
       <c r="B134" t="n">
-        <v>9965.0</v>
+        <v>7384.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>22052.0</v>
+        <v>16671.0</v>
       </c>
       <c r="B135" t="n">
-        <v>9647.0</v>
+        <v>7424.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>23363.0</v>
+        <v>17328.0</v>
       </c>
       <c r="B136" t="n">
-        <v>9961.0</v>
+        <v>7710.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>24528.0</v>
+        <v>17770.0</v>
       </c>
       <c r="B137" t="n">
-        <v>9966.0</v>
+        <v>7634.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>26011.0</v>
+        <v>18497.0</v>
       </c>
       <c r="B138" t="n">
-        <v>10339.0</v>
+        <v>7545.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>23037.0</v>
+        <v>19370.0</v>
       </c>
       <c r="B139" t="n">
-        <v>11242.0</v>
+        <v>7881.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>20878.0</v>
+        <v>19297.0</v>
       </c>
       <c r="B140" t="n">
-        <v>11900.0</v>
+        <v>8004.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>28091.0</v>
+        <v>20216.0</v>
       </c>
       <c r="B141" t="n">
-        <v>11897.0</v>
+        <v>8239.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>25184.0</v>
+        <v>18613.0</v>
       </c>
       <c r="B142" t="n">
-        <v>11520.0</v>
+        <v>8405.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>26425.0</v>
+        <v>18819.0</v>
       </c>
       <c r="B143" t="n">
-        <v>11507.0</v>
+        <v>8459.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>27693.0</v>
+        <v>19614.0</v>
       </c>
       <c r="B144" t="n">
-        <v>11530.0</v>
+        <v>8446.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>29113.0</v>
+        <v>20082.0</v>
       </c>
       <c r="B145" t="n">
-        <v>11919.0</v>
+        <v>8694.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>25551.0</v>
+        <v>21692.0</v>
       </c>
       <c r="B146" t="n">
-        <v>12781.0</v>
+        <v>8816.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>22806.0</v>
+        <v>21458.0</v>
       </c>
       <c r="B147" t="n">
-        <v>13866.0</v>
+        <v>8991.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>30457.0</v>
+        <v>21835.0</v>
       </c>
       <c r="B148" t="n">
-        <v>12953.0</v>
+        <v>9191.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>26648.0</v>
+        <v>19819.0</v>
       </c>
       <c r="B149" t="n">
-        <v>12980.0</v>
+        <v>9264.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>22541.0</v>
+        <v>15401.0</v>
       </c>
       <c r="B150" t="n">
-        <v>12705.0</v>
+        <v>9386.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>22722.0</v>
+        <v>15441.0</v>
       </c>
       <c r="B151" t="n">
-        <v>11845.0</v>
+        <v>9327.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>22264.0</v>
+        <v>14932.0</v>
       </c>
       <c r="B152" t="n">
-        <v>11676.0</v>
+        <v>8892.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>17468.0</v>
+        <v>20258.0</v>
       </c>
       <c r="B153" t="n">
-        <v>11617.0</v>
+        <v>8209.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>17277.0</v>
+        <v>17514.0</v>
       </c>
       <c r="B154" t="n">
-        <v>11409.0</v>
+        <v>7905.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>13900.0</v>
+        <v>15106.0</v>
       </c>
       <c r="B155" t="n">
-        <v>10011.0</v>
+        <v>7804.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>11051.0</v>
+        <v>12397.0</v>
       </c>
       <c r="B156" t="n">
-        <v>9086.0</v>
+        <v>7412.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>14588.0</v>
+        <v>14768.0</v>
       </c>
       <c r="B157" t="n">
-        <v>7493.0</v>
+        <v>6947.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>12279.0</v>
+        <v>12799.0</v>
       </c>
       <c r="B158" t="n">
-        <v>6588.0</v>
+        <v>6345.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10109.0</v>
+        <v>10236.0</v>
       </c>
       <c r="B159" t="n">
-        <v>6247.0</v>
+        <v>6207.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8712.0</v>
+        <v>11452.0</v>
       </c>
       <c r="B160" t="n">
-        <v>5990.0</v>
+        <v>6196.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>8764.0</v>
+        <v>10823.0</v>
       </c>
       <c r="B161" t="n">
-        <v>5803.0</v>
+        <v>6039.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>11448.0</v>
+        <v>11202.0</v>
       </c>
       <c r="B162" t="n">
-        <v>5772.0</v>
+        <v>5786.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>12319.0</v>
+        <v>13448.0</v>
       </c>
       <c r="B163" t="n">
-        <v>5556.0</v>
+        <v>5511.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>12012.0</v>
+        <v>12883.0</v>
       </c>
       <c r="B164" t="n">
-        <v>5058.0</v>
+        <v>5388.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>12392.0</v>
+        <v>13578.0</v>
       </c>
       <c r="B165" t="n">
-        <v>4593.0</v>
+        <v>5260.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>13775.0</v>
+        <v>14439.0</v>
       </c>
       <c r="B166" t="n">
-        <v>4764.0</v>
+        <v>5437.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>12152.0</v>
+        <v>16371.0</v>
       </c>
       <c r="B167" t="n">
-        <v>5726.0</v>
+        <v>5987.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>11656.0</v>
+        <v>15528.0</v>
       </c>
       <c r="B168" t="n">
-        <v>6183.0</v>
+        <v>6411.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16363.0</v>
+        <v>17108.0</v>
       </c>
       <c r="B169" t="n">
-        <v>6236.0</v>
+        <v>6813.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>15041.0</v>
+        <v>16033.0</v>
       </c>
       <c r="B170" t="n">
-        <v>6298.0</v>
+        <v>7023.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>15812.0</v>
+        <v>17071.0</v>
       </c>
       <c r="B171" t="n">
-        <v>6237.0</v>
+        <v>7314.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16574.0</v>
+        <v>18099.0</v>
       </c>
       <c r="B172" t="n">
-        <v>6348.0</v>
+        <v>7460.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>17932.0</v>
+        <v>19217.0</v>
       </c>
       <c r="B173" t="n">
-        <v>6737.0</v>
+        <v>7777.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16175.0</v>
+        <v>21711.0</v>
       </c>
       <c r="B174" t="n">
-        <v>7473.0</v>
+        <v>8372.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>14734.0</v>
+        <v>21674.0</v>
       </c>
       <c r="B175" t="n">
-        <v>7944.0</v>
+        <v>8680.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>21155.0</v>
+        <v>21926.0</v>
       </c>
       <c r="B176" t="n">
-        <v>8005.0</v>
+        <v>9341.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>19379.0</v>
+        <v>20573.0</v>
       </c>
       <c r="B177" t="n">
-        <v>8067.0</v>
+        <v>9597.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>20640.0</v>
+        <v>22351.0</v>
       </c>
       <c r="B178" t="n">
-        <v>8129.0</v>
+        <v>9820.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>21619.0</v>
+        <v>23040.0</v>
       </c>
       <c r="B179" t="n">
-        <v>8123.0</v>
+        <v>9866.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>23465.0</v>
+        <v>24438.0</v>
       </c>
       <c r="B180" t="n">
-        <v>8785.0</v>
+        <v>10655.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>21116.0</v>
+        <v>27646.0</v>
       </c>
       <c r="B181" t="n">
-        <v>9764.0</v>
+        <v>11109.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>19223.0</v>
+        <v>28329.0</v>
       </c>
       <c r="B182" t="n">
-        <v>10683.0</v>
+        <v>11607.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>26592.0</v>
+        <v>26999.0</v>
       </c>
       <c r="B183" t="n">
-        <v>10466.0</v>
+        <v>12023.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>23843.0</v>
+        <v>25400.0</v>
       </c>
       <c r="B184" t="n">
-        <v>10417.0</v>
+        <v>12601.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>25544.0</v>
+        <v>26873.0</v>
       </c>
       <c r="B185" t="n">
-        <v>10494.0</v>
+        <v>12456.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>26386.0</v>
+        <v>28180.0</v>
       </c>
       <c r="B186" t="n">
-        <v>10429.0</v>
+        <v>12664.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>28061.0</v>
+        <v>29316.0</v>
       </c>
       <c r="B187" t="n">
-        <v>11230.0</v>
+        <v>13354.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>25319.0</v>
+        <v>34034.0</v>
       </c>
       <c r="B188" t="n">
-        <v>12362.0</v>
+        <v>13875.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>22849.0</v>
+        <v>35066.0</v>
       </c>
       <c r="B189" t="n">
-        <v>12969.0</v>
+        <v>14142.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>30554.0</v>
+        <v>30886.0</v>
       </c>
       <c r="B190" t="n">
-        <v>12829.0</v>
+        <v>14924.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>27386.0</v>
+        <v>29352.0</v>
       </c>
       <c r="B191" t="n">
-        <v>12602.0</v>
+        <v>15603.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>28541.0</v>
+        <v>30472.0</v>
       </c>
       <c r="B192" t="n">
-        <v>12440.0</v>
+        <v>15048.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>29020.0</v>
+        <v>31293.0</v>
       </c>
       <c r="B193" t="n">
-        <v>12094.0</v>
+        <v>14754.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>31249.0</v>
+        <v>32120.0</v>
       </c>
       <c r="B194" t="n">
-        <v>12798.0</v>
+        <v>15244.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>27328.0</v>
+        <v>36529.0</v>
       </c>
       <c r="B195" t="n">
-        <v>13914.0</v>
+        <v>15766.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>24919.0</v>
+        <v>37483.0</v>
       </c>
       <c r="B196" t="n">
-        <v>14395.0</v>
+        <v>15801.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>32936.0</v>
+        <v>32207.0</v>
       </c>
       <c r="B197" t="n">
-        <v>14277.0</v>
+        <v>16062.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>28467.0</v>
+        <v>30044.0</v>
       </c>
       <c r="B198" t="n">
-        <v>13809.0</v>
+        <v>16486.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>29271.0</v>
+        <v>30484.0</v>
       </c>
       <c r="B199" t="n">
-        <v>13436.0</v>
+        <v>15720.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>29909.0</v>
+        <v>31375.0</v>
       </c>
       <c r="B200" t="n">
-        <v>12701.0</v>
+        <v>15333.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>31437.0</v>
+        <v>31603.0</v>
       </c>
       <c r="B201" t="n">
-        <v>13188.0</v>
+        <v>15479.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>27422.0</v>
+        <v>36094.0</v>
       </c>
       <c r="B202" t="n">
-        <v>14678.0</v>
+        <v>15912.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>24586.0</v>
+        <v>36592.0</v>
       </c>
       <c r="B203" t="n">
-        <v>14748.0</v>
+        <v>15718.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>31840.0</v>
+        <v>30463.0</v>
       </c>
       <c r="B204" t="n">
-        <v>14325.0</v>
+        <v>15878.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>28004.0</v>
+        <v>28598.0</v>
       </c>
       <c r="B205" t="n">
-        <v>13502.0</v>
+        <v>16180.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>28346.0</v>
+        <v>29010.0</v>
       </c>
       <c r="B206" t="n">
-        <v>13185.0</v>
+        <v>15250.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>20569.0</v>
+        <v>32528.0</v>
       </c>
       <c r="B207" t="n">
-        <v>12592.0</v>
+        <v>14766.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>29434.0</v>
+        <v>29759.0</v>
       </c>
       <c r="B208" t="n">
-        <v>12520.0</v>
+        <v>14284.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>21657.0</v>
+        <v>27542.0</v>
       </c>
       <c r="B209" t="n">
-        <v>12759.0</v>
+        <v>14598.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>19559.0</v>
+        <v>28001.0</v>
       </c>
       <c r="B210" t="n">
-        <v>13077.0</v>
+        <v>14231.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>25836.0</v>
+        <v>26504.0</v>
       </c>
       <c r="B211" t="n">
-        <v>11880.0</v>
+        <v>13471.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>22422.0</v>
+        <v>23838.0</v>
       </c>
       <c r="B212" t="n">
-        <v>11048.0</v>
+        <v>13143.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>23187.0</v>
+        <v>25032.0</v>
       </c>
       <c r="B213" t="n">
-        <v>10834.0</v>
+        <v>12988.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>23616.0</v>
+        <v>25223.0</v>
       </c>
       <c r="B214" t="n">
-        <v>10571.0</v>
+        <v>12523.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>24924.0</v>
+        <v>25136.0</v>
       </c>
       <c r="B215" t="n">
-        <v>10710.0</v>
+        <v>12638.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>21353.0</v>
+        <v>28776.0</v>
       </c>
       <c r="B216" t="n">
-        <v>11586.0</v>
+        <v>12848.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>19309.0</v>
+        <v>29207.0</v>
       </c>
       <c r="B217" t="n">
-        <v>11626.0</v>
+        <v>12516.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>25476.0</v>
+        <v>24456.0</v>
       </c>
       <c r="B218" t="n">
-        <v>11173.0</v>
+        <v>12840.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>22538.0</v>
+        <v>22029.0</v>
       </c>
       <c r="B219" t="n">
-        <v>10863.0</v>
+        <v>12844.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>15916.0</v>
+        <v>24260.0</v>
       </c>
       <c r="B220" t="n">
-        <v>10487.0</v>
+        <v>11978.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>22044.0</v>
+        <v>22812.0</v>
       </c>
       <c r="B221" t="n">
-        <v>9470.0</v>
+        <v>10983.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>20251.0</v>
+        <v>20613.0</v>
       </c>
       <c r="B222" t="n">
-        <v>9287.0</v>
+        <v>11076.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>17074.0</v>
+        <v>21862.0</v>
       </c>
       <c r="B223" t="n">
-        <v>9957.0</v>
+        <v>10997.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>15156.0</v>
+        <v>21637.0</v>
       </c>
       <c r="B224" t="n">
-        <v>9765.0</v>
+        <v>10650.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>20353.0</v>
+        <v>20832.0</v>
       </c>
       <c r="B225" t="n">
-        <v>9025.0</v>
+        <v>10167.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>18670.0</v>
+        <v>18899.0</v>
       </c>
       <c r="B226" t="n">
-        <v>8797.0</v>
+        <v>10142.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>18638.0</v>
+        <v>19555.0</v>
       </c>
       <c r="B227" t="n">
-        <v>8675.0</v>
+        <v>9876.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>19184.0</v>
+        <v>19736.0</v>
       </c>
       <c r="B228" t="n">
-        <v>8138.0</v>
+        <v>9605.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>19659.0</v>
+        <v>20074.0</v>
       </c>
       <c r="B229" t="n">
-        <v>8218.0</v>
+        <v>9501.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>16968.0</v>
+        <v>22550.0</v>
       </c>
       <c r="B230" t="n">
-        <v>8794.0</v>
+        <v>9893.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>15389.0</v>
+        <v>22632.0</v>
       </c>
       <c r="B231" t="n">
-        <v>9147.0</v>
+        <v>9931.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>20979.0</v>
+        <v>20296.0</v>
       </c>
       <c r="B232" t="n">
-        <v>8972.0</v>
+        <v>9908.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>18587.0</v>
+        <v>18301.0</v>
       </c>
       <c r="B233" t="n">
-        <v>8648.0</v>
+        <v>9961.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>15217.0</v>
+        <v>14141.0</v>
       </c>
       <c r="B234" t="n">
-        <v>8439.0</v>
+        <v>9294.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>15068.0</v>
+        <v>13816.0</v>
       </c>
       <c r="B235" t="n">
-        <v>8042.0</v>
+        <v>8851.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>14817.0</v>
+        <v>13121.0</v>
       </c>
       <c r="B236" t="n">
-        <v>7944.0</v>
+        <v>8367.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>11753.0</v>
+        <v>18111.0</v>
       </c>
       <c r="B237" t="n">
-        <v>8084.0</v>
+        <v>7760.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>11978.0</v>
+        <v>15776.0</v>
       </c>
       <c r="B238" t="n">
-        <v>7830.0</v>
+        <v>7283.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>13159.0</v>
+        <v>11154.0</v>
       </c>
       <c r="B239" t="n">
-        <v>7376.0</v>
+        <v>7015.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>11131.0</v>
+        <v>9850.0</v>
       </c>
       <c r="B240" t="n">
-        <v>6370.0</v>
+        <v>6475.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>10329.0</v>
+        <v>9487.0</v>
       </c>
       <c r="B241" t="n">
-        <v>5874.0</v>
+        <v>5690.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>9874.0</v>
+        <v>9376.0</v>
       </c>
       <c r="B242" t="n">
-        <v>5489.0</v>
+        <v>5472.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>10069.0</v>
+        <v>8936.0</v>
       </c>
       <c r="B243" t="n">
-        <v>5429.0</v>
+        <v>5337.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>8367.0</v>
+        <v>11533.0</v>
       </c>
       <c r="B244" t="n">
-        <v>5401.0</v>
+        <v>4988.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>8003.0</v>
+        <v>10276.0</v>
       </c>
       <c r="B245" t="n">
-        <v>5131.0</v>
+        <v>4760.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>11109.0</v>
+        <v>9514.0</v>
       </c>
       <c r="B246" t="n">
-        <v>4860.0</v>
+        <v>4489.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>9847.0</v>
+        <v>8748.0</v>
       </c>
       <c r="B247" t="n">
-        <v>4506.0</v>
+        <v>4340.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>9803.0</v>
+        <v>9029.0</v>
       </c>
       <c r="B248" t="n">
-        <v>4304.0</v>
+        <v>4201.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>10005.0</v>
+        <v>9176.0</v>
       </c>
       <c r="B249" t="n">
-        <v>4198.0</v>
+        <v>4211.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>10371.0</v>
+        <v>9502.0</v>
       </c>
       <c r="B250" t="n">
-        <v>4444.0</v>
+        <v>4223.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>8731.0</v>
+        <v>10664.0</v>
       </c>
       <c r="B251" t="n">
-        <v>4514.0</v>
+        <v>4462.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>8549.0</v>
+        <v>10233.0</v>
       </c>
       <c r="B252" t="n">
-        <v>4970.0</v>
+        <v>4407.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>11593.0</v>
+        <v>10390.0</v>
       </c>
       <c r="B253" t="n">
-        <v>4665.0</v>
+        <v>4463.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>10662.0</v>
+        <v>9546.0</v>
       </c>
       <c r="B254" t="n">
-        <v>4787.0</v>
+        <v>4393.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>10405.0</v>
+        <v>9806.0</v>
       </c>
       <c r="B255" t="n">
-        <v>4495.0</v>
+        <v>4347.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>10555.0</v>
+        <v>10207.0</v>
       </c>
       <c r="B256" t="n">
-        <v>4399.0</v>
+        <v>4360.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>11071.0</v>
+        <v>10397.0</v>
       </c>
       <c r="B257" t="n">
-        <v>4562.0</v>
+        <v>4480.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>9578.0</v>
+        <v>11548.0</v>
       </c>
       <c r="B258" t="n">
-        <v>4834.0</v>
+        <v>4646.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>8979.0</v>
+        <v>11162.0</v>
       </c>
       <c r="B259" t="n">
-        <v>5047.0</v>
+        <v>4774.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>12244.0</v>
+        <v>11516.0</v>
       </c>
       <c r="B260" t="n">
-        <v>5264.0</v>
+        <v>4937.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>11125.0</v>
+        <v>10744.0</v>
       </c>
       <c r="B261" t="n">
-        <v>4938.0</v>
+        <v>4798.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>11374.0</v>
+        <v>10628.0</v>
       </c>
       <c r="B262" t="n">
-        <v>4750.0</v>
+        <v>4842.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>11471.0</v>
+        <v>10914.0</v>
       </c>
       <c r="B263" t="n">
-        <v>4953.0</v>
+        <v>4754.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>11841.0</v>
+        <v>11274.0</v>
       </c>
       <c r="B264" t="n">
-        <v>4846.0</v>
+        <v>4816.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>10292.0</v>
+        <v>12127.0</v>
       </c>
       <c r="B265" t="n">
-        <v>5141.0</v>
+        <v>5143.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>9300.0</v>
+        <v>11888.0</v>
       </c>
       <c r="B266" t="n">
-        <v>5444.0</v>
+        <v>5204.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>13044.0</v>
+        <v>11995.0</v>
       </c>
       <c r="B267" t="n">
-        <v>5453.0</v>
+        <v>5161.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>11862.0</v>
+        <v>11104.0</v>
       </c>
       <c r="B268" t="n">
-        <v>5269.0</v>
+        <v>5084.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>11932.0</v>
+        <v>11320.0</v>
       </c>
       <c r="B269" t="n">
-        <v>5124.0</v>
+        <v>5241.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>11975.0</v>
+        <v>11440.0</v>
       </c>
       <c r="B270" t="n">
-        <v>5174.0</v>
+        <v>5122.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>12460.0</v>
+        <v>11732.0</v>
       </c>
       <c r="B271" t="n">
-        <v>5168.0</v>
+        <v>5053.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>10638.0</v>
+        <v>12469.0</v>
       </c>
       <c r="B272" t="n">
-        <v>5422.0</v>
+        <v>5346.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>9730.0</v>
+        <v>12450.0</v>
       </c>
       <c r="B273" t="n">
-        <v>5782.0</v>
+        <v>5306.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>9595.0</v>
+        <v>11638.0</v>
       </c>
       <c r="B274" t="n">
-        <v>5744.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>12599.0</v>
+        <v>11948.0</v>
       </c>
       <c r="B275" t="n">
-        <v>5469.0</v>
+        <v>5321.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>10768.0</v>
+        <v>10631.0</v>
       </c>
       <c r="B276" t="n">
-        <v>5028.0</v>
+        <v>5090.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>10672.0</v>
+        <v>10825.0</v>
       </c>
       <c r="B277" t="n">
-        <v>4907.0</v>
+        <v>4999.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>10851.0</v>
+        <v>11275.0</v>
       </c>
       <c r="B278" t="n">
-        <v>4758.0</v>
+        <v>4924.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>9170.0</v>
+        <v>11191.0</v>
       </c>
       <c r="B279" t="n">
-        <v>4789.0</v>
+        <v>4986.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>8286.0</v>
+        <v>10988.0</v>
       </c>
       <c r="B280" t="n">
-        <v>5049.0</v>
+        <v>5093.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>12270.0</v>
+        <v>12345.0</v>
       </c>
       <c r="B281" t="n">
-        <v>5115.0</v>
+        <v>5048.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>7635.0</v>
+        <v>10258.0</v>
       </c>
       <c r="B282" t="n">
-        <v>4899.0</v>
+        <v>5135.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>11303.0</v>
+        <v>11541.0</v>
       </c>
       <c r="B283" t="n">
-        <v>4858.0</v>
+        <v>5202.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>10242.0</v>
+        <v>10758.0</v>
       </c>
       <c r="B284" t="n">
-        <v>4620.0</v>
+        <v>4952.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>10729.0</v>
+        <v>10891.0</v>
       </c>
       <c r="B285" t="n">
-        <v>4368.0</v>
+        <v>4848.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>8714.0</v>
+        <v>11198.0</v>
       </c>
       <c r="B286" t="n">
-        <v>4595.0</v>
+        <v>4873.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>7888.0</v>
+        <v>11100.0</v>
       </c>
       <c r="B287" t="n">
-        <v>4791.0</v>
+        <v>4992.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>11505.0</v>
+        <v>11808.0</v>
       </c>
       <c r="B288" t="n">
-        <v>4665.0</v>
+        <v>4981.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>10509.0</v>
+        <v>10992.0</v>
       </c>
       <c r="B289" t="n">
-        <v>4573.0</v>
+        <v>4987.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>10375.0</v>
+        <v>11171.0</v>
       </c>
       <c r="B290" t="n">
-        <v>4725.0</v>
+        <v>5143.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>10827.0</v>
+        <v>11372.0</v>
       </c>
       <c r="B291" t="n">
-        <v>4796.0</v>
+        <v>4894.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>10967.0</v>
+        <v>11860.0</v>
       </c>
       <c r="B292" t="n">
-        <v>4692.0</v>
+        <v>4998.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>9448.0</v>
+        <v>12002.0</v>
       </c>
       <c r="B293" t="n">
-        <v>4697.0</v>
+        <v>5113.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>8668.0</v>
+        <v>12410.0</v>
       </c>
       <c r="B294" t="n">
-        <v>5114.0</v>
+        <v>5331.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>12171.0</v>
+        <v>12420.0</v>
       </c>
       <c r="B295" t="n">
-        <v>5137.0</v>
+        <v>5341.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>11000.0</v>
+        <v>11483.0</v>
       </c>
       <c r="B296" t="n">
-        <v>4851.0</v>
+        <v>5480.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>10887.0</v>
+        <v>11656.0</v>
       </c>
       <c r="B297" t="n">
-        <v>4742.0</v>
+        <v>5452.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>11243.0</v>
+        <v>11698.0</v>
       </c>
       <c r="B298" t="n">
-        <v>4946.0</v>
+        <v>5252.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>11568.0</v>
+        <v>12140.0</v>
       </c>
       <c r="B299" t="n">
-        <v>4829.0</v>
+        <v>5081.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>9762.0</v>
+        <v>12850.0</v>
       </c>
       <c r="B300" t="n">
-        <v>4850.0</v>
+        <v>5271.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>8763.0</v>
+        <v>12784.0</v>
       </c>
       <c r="B301" t="n">
-        <v>5311.0</v>
+        <v>5492.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>12502.0</v>
+        <v>12563.0</v>
       </c>
       <c r="B302" t="n">
-        <v>5259.0</v>
+        <v>5651.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>11120.0</v>
+        <v>11724.0</v>
       </c>
       <c r="B303" t="n">
-        <v>5055.0</v>
+        <v>5579.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>11400.0</v>
+        <v>11724.0</v>
       </c>
       <c r="B304" t="n">
-        <v>4977.0</v>
+        <v>5602.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>9616.0</v>
+        <v>9197.0</v>
       </c>
       <c r="B305" t="n">
-        <v>5189.0</v>
+        <v>5380.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>9926.0</v>
+        <v>9446.0</v>
       </c>
       <c r="B306" t="n">
-        <v>4949.0</v>
+        <v>5349.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>7948.0</v>
+        <v>12418.0</v>
       </c>
       <c r="B307" t="n">
-        <v>4842.0</v>
+        <v>5211.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>8040.0</v>
+        <v>11083.0</v>
       </c>
       <c r="B308" t="n">
-        <v>5000.0</v>
+        <v>4976.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>9034.0</v>
+        <v>8449.0</v>
       </c>
       <c r="B309" t="n">
-        <v>4876.0</v>
+        <v>4660.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>7624.0</v>
+        <v>7613.0</v>
       </c>
       <c r="B310" t="n">
-        <v>4166.0</v>
+        <v>4693.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>7595.0</v>
+        <v>7450.0</v>
       </c>
       <c r="B311" t="n">
-        <v>3969.0</v>
+        <v>4457.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>7405.0</v>
+        <v>7505.0</v>
       </c>
       <c r="B312" t="n">
-        <v>3760.0</v>
+        <v>3905.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>7308.0</v>
+        <v>7146.0</v>
       </c>
       <c r="B313" t="n">
-        <v>3486.0</v>
+        <v>3633.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5428.0</v>
+        <v>8504.0</v>
       </c>
       <c r="B314" t="n">
-        <v>3497.0</v>
+        <v>3691.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>6165.0</v>
+        <v>7838.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3554.0</v>
+        <v>3413.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>5570.0</v>
+        <v>6915.0</v>
       </c>
       <c r="B316" t="n">
-        <v>3439.0</v>
+        <v>3452.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>6398.0</v>
+        <v>6071.0</v>
       </c>
       <c r="B317" t="n">
-        <v>3078.0</v>
+        <v>3279.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5660.0</v>
+        <v>5603.0</v>
       </c>
       <c r="B318" t="n">
-        <v>2980.0</v>
+        <v>3186.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>5593.0</v>
+        <v>5538.0</v>
       </c>
       <c r="B319" t="n">
-        <v>2761.0</v>
+        <v>2967.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>5839.0</v>
+        <v>5741.0</v>
       </c>
       <c r="B320" t="n">
-        <v>2585.0</v>
+        <v>2705.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>4405.0</v>
+        <v>6051.0</v>
       </c>
       <c r="B321" t="n">
-        <v>2567.0</v>
+        <v>2555.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>4782.0</v>
+        <v>5939.0</v>
       </c>
       <c r="B322" t="n">
-        <v>2568.0</v>
+        <v>2582.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>5638.0</v>
+        <v>5544.0</v>
       </c>
       <c r="B323" t="n">
-        <v>2627.0</v>
+        <v>2522.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>5449.0</v>
+        <v>4980.0</v>
       </c>
       <c r="B324" t="n">
-        <v>2535.0</v>
+        <v>2521.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>5249.0</v>
+        <v>5343.0</v>
       </c>
       <c r="B325" t="n">
-        <v>2450.0</v>
+        <v>2511.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>5469.0</v>
+        <v>4976.0</v>
       </c>
       <c r="B326" t="n">
-        <v>2406.0</v>
+        <v>2430.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>5616.0</v>
+        <v>5234.0</v>
       </c>
       <c r="B327" t="n">
-        <v>2319.0</v>
+        <v>2278.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>4384.0</v>
+        <v>6085.0</v>
       </c>
       <c r="B328" t="n">
-        <v>2289.0</v>
+        <v>2319.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>4837.0</v>
+        <v>5581.0</v>
       </c>
       <c r="B329" t="n">
-        <v>2431.0</v>
+        <v>2288.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5631.0</v>
+        <v>5122.0</v>
       </c>
       <c r="B330" t="n">
-        <v>2426.0</v>
+        <v>2368.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>5066.0</v>
+        <v>4639.0</v>
       </c>
       <c r="B331" t="n">
-        <v>2317.0</v>
+        <v>2495.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>5078.0</v>
+        <v>4792.0</v>
       </c>
       <c r="B332" t="n">
-        <v>2377.0</v>
+        <v>2336.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>5481.0</v>
+        <v>4808.0</v>
       </c>
       <c r="B333" t="n">
-        <v>2360.0</v>
+        <v>2265.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>5322.0</v>
+        <v>4674.0</v>
       </c>
       <c r="B334" t="n">
-        <v>2179.0</v>
+        <v>1981.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4519.0</v>
+        <v>5541.0</v>
       </c>
       <c r="B335" t="n">
-        <v>2249.0</v>
+        <v>2011.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>4580.0</v>
+        <v>5343.0</v>
       </c>
       <c r="B336" t="n">
-        <v>2417.0</v>
+        <v>2154.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>4331.0</v>
+        <v>3743.0</v>
       </c>
       <c r="B337" t="n">
-        <v>2402.0</v>
+        <v>2099.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>4033.0</v>
+        <v>3570.0</v>
       </c>
       <c r="B338" t="n">
-        <v>2359.0</v>
+        <v>2178.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3758.0</v>
+        <v>3177.0</v>
       </c>
       <c r="B339" t="n">
-        <v>2211.0</v>
+        <v>2089.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>3517.0</v>
+        <v>3180.0</v>
       </c>
       <c r="B340" t="n">
-        <v>2050.0</v>
+        <v>1815.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>3312.0</v>
+        <v>2886.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1824.0</v>
+        <v>1655.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>3163.0</v>
+        <v>3635.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1620.0</v>
+        <v>1428.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2924.0</v>
+        <v>3183.0</v>
       </c>
       <c r="B343" t="n">
-        <v>1524.0</v>
+        <v>1363.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2808.0</v>
+        <v>2526.0</v>
       </c>
       <c r="B344" t="n">
-        <v>1482.0</v>
+        <v>1288.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2827.0</v>
+        <v>2518.0</v>
       </c>
       <c r="B345" t="n">
-        <v>1378.0</v>
+        <v>1286.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2614.0</v>
+        <v>2420.0</v>
       </c>
       <c r="B346" t="n">
-        <v>1390.0</v>
+        <v>1152.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2698.0</v>
+        <v>2361.0</v>
       </c>
       <c r="B347" t="n">
-        <v>1288.0</v>
+        <v>1109.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2682.0</v>
+        <v>2304.0</v>
       </c>
       <c r="B348" t="n">
-        <v>1265.0</v>
+        <v>1093.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2575.0</v>
+        <v>2702.0</v>
       </c>
       <c r="B349" t="n">
-        <v>1158.0</v>
+        <v>1038.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2583.0</v>
+        <v>2499.0</v>
       </c>
       <c r="B350" t="n">
-        <v>1140.0</v>
+        <v>962.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2573.0</v>
+        <v>2254.0</v>
       </c>
       <c r="B351" t="n">
-        <v>1143.0</v>
+        <v>976.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2457.0</v>
+        <v>2118.0</v>
       </c>
       <c r="B352" t="n">
-        <v>1177.0</v>
+        <v>975.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2561.0</v>
+        <v>2183.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1122.0</v>
+        <v>923.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2460.0</v>
+        <v>2124.0</v>
       </c>
       <c r="B354" t="n">
-        <v>1076.0</v>
+        <v>867.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2502.0</v>
+        <v>2105.0</v>
       </c>
       <c r="B355" t="n">
-        <v>1082.0</v>
+        <v>910.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2483.0</v>
+        <v>2464.0</v>
       </c>
       <c r="B356" t="n">
-        <v>1047.0</v>
+        <v>878.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2454.0</v>
+        <v>2439.0</v>
       </c>
       <c r="B357" t="n">
-        <v>1073.0</v>
+        <v>891.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2446.0</v>
+        <v>2116.0</v>
       </c>
       <c r="B358" t="n">
-        <v>1015.0</v>
+        <v>887.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2517.0</v>
+        <v>2191.0</v>
       </c>
       <c r="B359" t="n">
-        <v>1047.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2400.0</v>
+        <v>2185.0</v>
       </c>
       <c r="B360" t="n">
-        <v>1012.0</v>
+        <v>947.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2432.0</v>
+        <v>2105.0</v>
       </c>
       <c r="B361" t="n">
-        <v>1076.0</v>
+        <v>753.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2497.0</v>
+        <v>1988.0</v>
       </c>
       <c r="B362" t="n">
-        <v>1058.0</v>
+        <v>745.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2525.0</v>
+        <v>2198.0</v>
       </c>
       <c r="B363" t="n">
-        <v>1055.0</v>
+        <v>889.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2433.0</v>
+        <v>2184.0</v>
       </c>
       <c r="B364" t="n">
-        <v>1004.0</v>
+        <v>965.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2415.0</v>
+        <v>1787.0</v>
       </c>
       <c r="B365" t="n">
-        <v>1061.0</v>
+        <v>874.0</v>
       </c>
     </row>
   </sheetData>
